--- a/biology/Zoologie/Buthacus_occidentalis/Buthacus_occidentalis.xlsx
+++ b/biology/Zoologie/Buthacus_occidentalis/Buthacus_occidentalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buthacus occidentalis est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Mauritanie[1]. Elle se rencontre vers Chinguetti et Aftout[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Mauritanie. Elle se rencontre vers Chinguetti et Aftout.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Buthacus occidentalis mesure de 44 à 50 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Buthacus occidentalis mesure de 44 à 50 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthacus leptochelys occidentalis par Vachon en 1953. Elle est élevée au rang d'espèce par Lourenço en 2000[3].
-Buthacus ehrenbergi[4] a été placée en synonymie par Lourenço en 2006[5].
-Buthacus huberi[6] a été placée en synonymie par Kovařík, Lowe et Šťáhlavský en 2016[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Buthacus leptochelys occidentalis par Vachon en 1953. Elle est élevée au rang d'espèce par Lourenço en 2000.
+Buthacus ehrenbergi a été placée en synonymie par Lourenço en 2006.
+Buthacus huberi a été placée en synonymie par Kovařík, Lowe et Šťáhlavský en 2016.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vachon, 1953 : « Contribution à l'étude du peuplement de la Mauritanie. Scorpions. » Mémoire de l'Institut français d'Afrique Noire, vol. 15, no 3, p. 1012-1028.</t>
         </is>
